--- a/biology/Écologie/Placette_permanente/Placette_permanente.xlsx
+++ b/biology/Écologie/Placette_permanente/Placette_permanente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En phytosociologie, une placette permanente est une surface délimitée et localisée avec précision, dans laquelle des inventaires de végétation (parfois de microfaune) sont effectués plusieurs fois durant une période. La taille diffère de quelques m² (phytosociologie), dizaines des m² (inventaire forestier, REDD - Reducing Emissions from Deforestation and Forest Degradation) jusqu'au 1 ha (recherche, par exemple les placettes CTFS). 
 Placettes temporaires - sont plus rapides à mettre en œuvre qu'un inventaire par placettes permanentes, mais elles ne permettent pas de suivre de façon continue le peuplement (accroissement, passage à la futaie...).
